--- a/data/yoshimitsu-tekken-8-frame-data.xlsx
+++ b/data/yoshimitsu-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>14</v>
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F9" t="n">
         <v>14</v>
@@ -709,7 +709,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
@@ -777,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
@@ -807,7 +807,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -867,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F15" t="n">
         <v>16</v>
@@ -927,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F17" t="n">
         <v>-1</v>
@@ -957,7 +957,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
@@ -987,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
@@ -1043,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
@@ -1099,7 +1099,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F23" t="n">
         <v>20</v>
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
@@ -1171,7 +1171,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>18</v>
@@ -1201,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>25</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F28" t="n">
         <v>52</v>
@@ -1261,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F29" t="n">
         <v>-2</v>
@@ -1291,7 +1291,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="F30" t="n">
         <v>-12</v>
@@ -1321,7 +1321,7 @@
         <v>22</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="F31" t="n">
         <v>-13</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>54</v>
+        <v>-54</v>
       </c>
       <c r="F35" t="n">
         <v>-17</v>
@@ -1459,7 +1459,7 @@
         <v>24</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F36" t="n">
         <v>18</v>
@@ -1489,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>7</v>
@@ -1519,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>5</v>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>5</v>
@@ -1579,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>5</v>
@@ -1609,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>5</v>
@@ -1639,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>73</v>
+        <v>-73</v>
       </c>
       <c r="F42" t="n">
         <v>-71</v>
@@ -1669,7 +1669,7 @@
         <v>13</v>
       </c>
       <c r="E43" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F43" t="n">
         <v>-9</v>
@@ -1695,7 +1695,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F44" t="n">
         <v>-7</v>
@@ -1721,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="E45" t="n">
-        <v>27</v>
+        <v>-27</v>
       </c>
       <c r="F45" t="n">
         <v>-15</v>
@@ -1747,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F46" t="n">
         <v>23</v>
@@ -1793,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
@@ -1819,7 +1819,7 @@
         <v>27</v>
       </c>
       <c r="E49" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F49" t="n">
         <v>28</v>
@@ -1849,7 +1849,7 @@
         <v>22</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -1879,7 +1879,7 @@
         <v>27</v>
       </c>
       <c r="E51" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F51" t="n">
         <v>28</v>
@@ -1909,7 +1909,7 @@
         <v>22</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>22</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F61" t="n">
         <v>14</v>
@@ -2143,7 +2143,7 @@
         <v>17</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F63" t="n">
         <v>-13</v>
@@ -2169,7 +2169,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F64" t="n">
         <v>8</v>
@@ -2199,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F65" t="n">
         <v>5</v>
@@ -2233,7 +2233,7 @@
         <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F66" t="n">
         <v>27</v>
@@ -2263,7 +2263,7 @@
         <v>16</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F67" t="n">
         <v>14</v>
@@ -2297,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F68" t="n">
         <v>11</v>
@@ -2327,7 +2327,7 @@
         <v>17</v>
       </c>
       <c r="E69" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F69" t="n">
         <v>3</v>
@@ -2361,7 +2361,7 @@
         <v>24</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -2771,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>27</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F85" t="n">
         <v>17</v>
@@ -2831,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F86" t="n">
         <v>7</v>
@@ -2865,7 +2865,7 @@
         <v>19</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F87" t="n">
         <v>8</v>
@@ -2895,7 +2895,7 @@
         <v>25</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F88" t="n">
         <v>16</v>
@@ -2925,7 +2925,7 @@
         <v>29</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F89" t="n">
         <v>2</v>
@@ -2959,7 +2959,7 @@
         <v>19</v>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F90" t="n">
         <v>8</v>
@@ -2989,7 +2989,7 @@
         <v>29</v>
       </c>
       <c r="E91" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F91" t="n">
         <v>2</v>
@@ -3023,7 +3023,7 @@
         <v>27</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F92" t="n">
         <v>10</v>
@@ -3053,7 +3053,7 @@
         <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F93" t="n">
         <v>-4</v>
@@ -3095,7 +3095,7 @@
         <v>12</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F95" t="n">
         <v>-4</v>
@@ -3121,7 +3121,7 @@
         <v>26</v>
       </c>
       <c r="E96" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F96" t="n">
         <v>4</v>
@@ -3151,7 +3151,7 @@
         <v>25</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F99" t="n">
         <v>6</v>
@@ -3227,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
@@ -3257,7 +3257,7 @@
         <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F101" t="n">
         <v>2</v>
@@ -3287,7 +3287,7 @@
         <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F102" t="n">
         <v>2</v>
@@ -3317,7 +3317,7 @@
         <v>10</v>
       </c>
       <c r="E103" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F103" t="n">
         <v>2</v>
@@ -3347,7 +3347,7 @@
         <v>10</v>
       </c>
       <c r="E104" t="n">
-        <v>49</v>
+        <v>-49</v>
       </c>
       <c r="F104" t="n">
         <v>-37</v>
@@ -3377,7 +3377,7 @@
         <v>18</v>
       </c>
       <c r="E105" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F105" t="n">
         <v>-14</v>
@@ -3403,7 +3403,7 @@
         <v>15</v>
       </c>
       <c r="E106" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F106" t="n">
         <v>-7</v>
@@ -3429,7 +3429,7 @@
         <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F107" t="n">
         <v>-7</v>
@@ -3455,7 +3455,7 @@
         <v>15</v>
       </c>
       <c r="E108" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F108" t="n">
         <v>-7</v>
@@ -3481,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F109" t="n">
         <v>-7</v>
@@ -3507,7 +3507,7 @@
         <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F110" t="n">
         <v>-15</v>
@@ -3537,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="E111" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F111" t="n">
         <v>23</v>
@@ -3567,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="E112" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F112" t="n">
         <v>-1</v>
@@ -3593,7 +3593,7 @@
         <v>13</v>
       </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F113" t="n">
         <v>5</v>
@@ -3619,7 +3619,7 @@
         <v>25</v>
       </c>
       <c r="E114" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F114" t="n">
         <v>14</v>
@@ -3653,7 +3653,7 @@
         <v>26</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F115" t="n">
         <v>17</v>
@@ -3683,7 +3683,7 @@
         <v>15</v>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F116" t="n">
         <v>6</v>
@@ -3709,7 +3709,7 @@
         <v>26</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F117" t="n">
         <v>17</v>
@@ -3739,7 +3739,7 @@
         <v>20</v>
       </c>
       <c r="E118" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F118" t="n">
         <v>35</v>
@@ -3769,7 +3769,7 @@
         <v>17</v>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F119" t="n">
         <v>4</v>
@@ -3799,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="E120" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F120" t="n">
         <v>34</v>
@@ -3829,7 +3829,7 @@
         <v>17</v>
       </c>
       <c r="E121" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F121" t="n">
         <v>6</v>
@@ -3863,7 +3863,7 @@
         <v>17</v>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F122" t="n">
         <v>4</v>
@@ -3889,7 +3889,7 @@
         <v>23</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F123" t="n">
         <v>4</v>
@@ -3923,7 +3923,7 @@
         <v>23</v>
       </c>
       <c r="E124" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F124" t="n">
         <v>16</v>
@@ -3957,7 +3957,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F125" t="n">
         <v>4</v>
@@ -3983,7 +3983,7 @@
         <v>30</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F126" t="n">
         <v>10</v>
@@ -4033,7 +4033,7 @@
         <v>16</v>
       </c>
       <c r="E128" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F128" t="n">
         <v>13</v>
@@ -4059,7 +4059,7 @@
         <v>26</v>
       </c>
       <c r="E129" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -4089,7 +4089,7 @@
         <v>22</v>
       </c>
       <c r="E130" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F130" t="n">
         <v>6</v>
@@ -4151,7 +4151,7 @@
         <v>18</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F132" t="n">
         <v>14</v>
@@ -4249,7 +4249,7 @@
         <v>16</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F137" t="n">
         <v>18</v>
@@ -4279,7 +4279,7 @@
         <v>20</v>
       </c>
       <c r="E138" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F138" t="n">
         <v>19</v>
@@ -4313,7 +4313,7 @@
         <v>20</v>
       </c>
       <c r="E139" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F139" t="n">
         <v>8</v>
@@ -4343,7 +4343,7 @@
         <v>17</v>
       </c>
       <c r="E140" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F140" t="n">
         <v>14</v>
@@ -4377,7 +4377,7 @@
         <v>26</v>
       </c>
       <c r="E141" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F141" t="n">
         <v>17</v>
@@ -4407,7 +4407,7 @@
         <v>47</v>
       </c>
       <c r="E142" t="n">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="F142" t="n">
         <v>69</v>
@@ -4437,7 +4437,7 @@
         <v>32</v>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F143" t="n">
         <v>15</v>
@@ -4467,7 +4467,7 @@
         <v>25</v>
       </c>
       <c r="E144" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F144" t="n">
         <v>13</v>
@@ -4559,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="E147" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F147" t="n">
         <v>2</v>
@@ -4589,7 +4589,7 @@
         <v>23</v>
       </c>
       <c r="E148" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F148" t="n">
         <v>30</v>
@@ -4619,7 +4619,7 @@
         <v>23</v>
       </c>
       <c r="E149" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F149" t="n">
         <v>3</v>
@@ -4669,7 +4669,7 @@
         <v>19</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F151" t="n">
         <v>-2</v>
@@ -4699,7 +4699,7 @@
         <v>19</v>
       </c>
       <c r="E152" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F152" t="n">
         <v>29</v>
@@ -4729,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F153" t="n">
         <v>9</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>6</v>
       </c>
       <c r="E157" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F157" t="n">
         <v>14</v>
@@ -4861,7 +4861,7 @@
         <v>17</v>
       </c>
       <c r="E158" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F158" t="n">
         <v>43</v>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -5019,7 +5019,7 @@
         <v>22</v>
       </c>
       <c r="E166" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F166" t="n">
         <v>26</v>
@@ -5049,7 +5049,7 @@
         <v>8</v>
       </c>
       <c r="E167" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F167" t="n">
         <v>14</v>
@@ -5127,7 +5127,7 @@
         <v>22</v>
       </c>
       <c r="E170" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F170" t="n">
         <v>14</v>
@@ -5157,7 +5157,7 @@
         <v>17</v>
       </c>
       <c r="E171" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F171" t="n">
         <v>3</v>
@@ -5191,7 +5191,7 @@
         <v>17</v>
       </c>
       <c r="E172" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F172" t="n">
         <v>3</v>
@@ -5221,7 +5221,7 @@
         <v>24</v>
       </c>
       <c r="E173" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F173" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         <v>10</v>
       </c>
       <c r="E176" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F176" t="n">
         <v>6</v>
@@ -5313,7 +5313,7 @@
         <v>20</v>
       </c>
       <c r="E177" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F177" t="n">
         <v>35</v>
@@ -5343,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="E178" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F178" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         <v>21</v>
       </c>
       <c r="E179" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F179" t="n">
         <v>20</v>
@@ -5403,7 +5403,7 @@
         <v>25</v>
       </c>
       <c r="E180" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F180" t="n">
         <v>27</v>
@@ -5429,7 +5429,7 @@
         <v>25</v>
       </c>
       <c r="E181" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F181" t="n">
         <v>14</v>
@@ -5459,7 +5459,7 @@
         <v>20</v>
       </c>
       <c r="E182" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F182" t="n">
         <v>67</v>
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="E183" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F183" t="n">
         <v>35</v>
@@ -5515,7 +5515,7 @@
         <v>12</v>
       </c>
       <c r="E184" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F184" t="n">
         <v>14</v>
@@ -5545,7 +5545,7 @@
         <v>19</v>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F185" t="n">
         <v>18</v>
@@ -5603,7 +5603,7 @@
         <v>53</v>
       </c>
       <c r="E187" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F187" t="n">
         <v>5</v>
@@ -5633,7 +5633,7 @@
         <v>25</v>
       </c>
       <c r="E188" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F188" t="n">
         <v>4</v>
@@ -5663,7 +5663,7 @@
         <v>27</v>
       </c>
       <c r="E189" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F189" t="n">
         <v>20</v>
@@ -5693,7 +5693,7 @@
         <v>25</v>
       </c>
       <c r="E190" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F190" t="n">
         <v>3</v>
@@ -5723,7 +5723,7 @@
         <v>24</v>
       </c>
       <c r="E191" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F191" t="n">
         <v>27</v>
@@ -5753,7 +5753,7 @@
         <v>24</v>
       </c>
       <c r="E192" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F192" t="n">
         <v>16</v>
@@ -5807,7 +5807,7 @@
         <v>18</v>
       </c>
       <c r="E194" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F194" t="n">
         <v>-4</v>
@@ -5863,7 +5863,7 @@
         <v>25</v>
       </c>
       <c r="E196" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F196" t="n">
         <v>5</v>
@@ -5913,7 +5913,7 @@
         <v>27</v>
       </c>
       <c r="E198" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F198" t="n">
         <v>-8</v>
@@ -6031,7 +6031,7 @@
         <v>20</v>
       </c>
       <c r="E202" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F203" t="n">
         <v>-3</v>
@@ -6089,7 +6089,7 @@
         <v>17</v>
       </c>
       <c r="E204" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F204" t="n">
         <v>2</v>
@@ -6115,7 +6115,7 @@
         <v>18</v>
       </c>
       <c r="E205" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F205" t="n">
         <v>30</v>
@@ -6145,7 +6145,7 @@
         <v>24</v>
       </c>
       <c r="E206" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F206" t="n">
         <v>4</v>
@@ -6191,7 +6191,7 @@
         <v>39</v>
       </c>
       <c r="E208" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
         <v>24</v>
@@ -6221,7 +6221,7 @@
         <v>24</v>
       </c>
       <c r="E209" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
@@ -6251,7 +6251,7 @@
         <v>24</v>
       </c>
       <c r="E210" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F210" t="n">
         <v>27</v>
@@ -6369,7 +6369,7 @@
         <v>20</v>
       </c>
       <c r="E214" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F214" t="n">
         <v>12</v>
@@ -6399,7 +6399,7 @@
         <v>24</v>
       </c>
       <c r="E215" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F215" t="n">
         <v>5</v>
@@ -6519,7 +6519,7 @@
         <v>55</v>
       </c>
       <c r="E219" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F219" t="n">
         <v>34</v>
@@ -6549,7 +6549,7 @@
         <v>83</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F220" t="n">
         <v>34</v>
@@ -6579,7 +6579,7 @@
         <v>35</v>
       </c>
       <c r="E221" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F221" t="n">
         <v>6</v>
@@ -6613,7 +6613,7 @@
         <v>15</v>
       </c>
       <c r="E222" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F222" t="n">
         <v>32</v>
@@ -6643,7 +6643,7 @@
         <v>31</v>
       </c>
       <c r="E223" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F223" t="n">
         <v>-4</v>
@@ -6673,7 +6673,7 @@
         <v>16</v>
       </c>
       <c r="E224" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F224" t="n">
         <v>-42</v>
@@ -6733,7 +6733,7 @@
         <v>17</v>
       </c>
       <c r="E226" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F226" t="n">
         <v>27</v>
@@ -6763,7 +6763,7 @@
         <v>24</v>
       </c>
       <c r="E227" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F227" t="n">
         <v>1</v>
@@ -6797,7 +6797,7 @@
         <v>24</v>
       </c>
       <c r="E228" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F228" t="n">
         <v>16</v>
@@ -6831,7 +6831,7 @@
         <v>39</v>
       </c>
       <c r="E229" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F229" t="n">
         <v>27</v>
@@ -6861,7 +6861,7 @@
         <v>25</v>
       </c>
       <c r="E230" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F230" t="n">
         <v>52</v>
@@ -6891,7 +6891,7 @@
         <v>20</v>
       </c>
       <c r="E231" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F231" t="n">
         <v>22</v>
@@ -6921,7 +6921,7 @@
         <v>17</v>
       </c>
       <c r="E232" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
@@ -6973,7 +6973,7 @@
         <v>23</v>
       </c>
       <c r="E234" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F234" t="n">
         <v>12</v>
@@ -7003,7 +7003,7 @@
         <v>14</v>
       </c>
       <c r="E235" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F235" t="n">
         <v>1</v>
@@ -7033,7 +7033,7 @@
         <v>18</v>
       </c>
       <c r="E236" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>18</v>
       </c>
       <c r="E237" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F239" t="n">
         <v>-5</v>
@@ -7147,7 +7147,7 @@
         <v>25</v>
       </c>
       <c r="E240" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F240" t="n">
         <v>14</v>
@@ -7181,7 +7181,7 @@
         <v>26</v>
       </c>
       <c r="E241" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F241" t="n">
         <v>17</v>
@@ -7211,7 +7211,7 @@
         <v>15</v>
       </c>
       <c r="E242" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F242" t="n">
         <v>6</v>
@@ -7237,7 +7237,7 @@
         <v>15</v>
       </c>
       <c r="E243" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F243" t="n">
         <v>7</v>
@@ -7263,7 +7263,7 @@
         <v>27</v>
       </c>
       <c r="E244" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F244" t="n">
         <v>36</v>
@@ -7293,7 +7293,7 @@
         <v>23</v>
       </c>
       <c r="E245" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F245" t="n">
         <v>5</v>
@@ -7323,7 +7323,7 @@
         <v>25</v>
       </c>
       <c r="E246" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F246" t="n">
         <v>5</v>
@@ -7357,7 +7357,7 @@
         <v>25</v>
       </c>
       <c r="E247" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F247" t="n">
         <v>27</v>
@@ -7387,7 +7387,7 @@
         <v>16</v>
       </c>
       <c r="E248" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F248" t="n">
         <v>3</v>
@@ -7413,7 +7413,7 @@
         <v>32</v>
       </c>
       <c r="E249" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -7443,7 +7443,7 @@
         <v>11</v>
       </c>
       <c r="E250" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F250" t="n">
         <v>5</v>
